--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-5.96044815513255</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.5801675785976</v>
+        <v>-10.73167170708206</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.215315184132914</v>
+        <v>-3.326141527688125</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.126264164670046</v>
+        <v>-8.867930028350985</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.491326246497294</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.14605618432553</v>
+        <v>-11.32136211937624</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.277608361053846</v>
+        <v>-3.357157193120174</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.96966713038016</v>
+        <v>-8.711935239991819</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.818224277171093</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.29185206877099</v>
+        <v>-11.47756638458088</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.175488398888383</v>
+        <v>-3.260444352028343</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.57608632235219</v>
+        <v>-8.315971632846656</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.002933327797702</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.74980772987173</v>
+        <v>-11.92517912643665</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.310273656643953</v>
+        <v>-3.401173515274057</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.269058728410873</v>
+        <v>-8.00114102641167</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.04604248787082</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.13957867777275</v>
+        <v>-12.32103799515908</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.368377296655533</v>
+        <v>-3.431115611873084</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.975961344693151</v>
+        <v>-7.700162076383228</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.981268440173063</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.69292485737831</v>
+        <v>-12.91190671470902</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.227307733535935</v>
+        <v>-3.2417616358732</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.626409951121907</v>
+        <v>-7.334088196625726</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.8305848805871897</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.25967755509379</v>
+        <v>-13.46247732611212</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.166873663618527</v>
+        <v>-3.126863586134212</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.446377694745332</v>
+        <v>-7.148072757850482</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3745047344277706</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.66167671384899</v>
+        <v>-13.84321458505236</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.298529860994925</v>
+        <v>-3.261373905530106</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.272996328212353</v>
+        <v>-6.933830314148477</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>1.606690363357345</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.39841987166144</v>
+        <v>-14.61281942299754</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.151385469356765</v>
+        <v>-3.105510040199357</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.214971242017824</v>
+        <v>-6.865776523977185</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>2.8298940877438</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.82242719149358</v>
+        <v>-15.04133049500724</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.213063308044137</v>
+        <v>-3.137913489732629</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.245109723159477</v>
+        <v>-6.88341185590499</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>4.000321904059907</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.40034762353305</v>
+        <v>-15.63527590572498</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.2470640185241</v>
+        <v>-3.172241507783635</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.928433102023807</v>
+        <v>-6.5092469329913</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.067718700578332</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.48344446966948</v>
+        <v>-15.71490329160836</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.381744537856935</v>
+        <v>-3.35621454731557</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.47851611486789</v>
+        <v>-6.058727699904665</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.984932648390473</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.19376736034733</v>
+        <v>-16.45988150790826</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.047039815708208</v>
+        <v>-2.984275315884974</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.10797775984136</v>
+        <v>-5.673211750427199</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.718067028389382</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.80554448753551</v>
+        <v>-17.08421415352165</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.999410017970009</v>
+        <v>-2.945522099473465</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.041521230616758</v>
+        <v>-5.591345580757886</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.254720933696203</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.58288687646015</v>
+        <v>-17.87163761563442</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.769836487640343</v>
+        <v>-2.697632437468223</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.792728199715437</v>
+        <v>-5.336438444429479</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.606431188901894</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.08569676709664</v>
+        <v>-18.39098308476001</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.667585602446462</v>
+        <v>-2.613239453350457</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.586262583901417</v>
+        <v>-5.166827661114918</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.802622854813872</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.51991608314533</v>
+        <v>-18.85519686661909</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.723450458672107</v>
+        <v>-2.625376018084737</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.506910136377716</v>
+        <v>-5.107624267664633</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>7.877379631496336</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.12911402667368</v>
+        <v>-19.50460127217439</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.486610700265282</v>
+        <v>-2.379384739991546</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.151532668041903</v>
+        <v>-4.769044223874755</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.860906206171663</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.46836177790849</v>
+        <v>-19.87421007369916</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.260310245646048</v>
+        <v>-2.168821233388066</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.833625370439111</v>
+        <v>-4.520251192973435</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.782459358549519</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.18013791420177</v>
+        <v>-20.60004734324445</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.014318967552856</v>
+        <v>-1.902052470685055</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.837683984320046</v>
+        <v>-4.595885426490086</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.661545803055746</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.7821743680757</v>
+        <v>-21.24480398129093</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.788633851167182</v>
+        <v>-1.640599182935786</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.82982860261501</v>
+        <v>-4.628393614446091</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.507766011445081</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.99035507556199</v>
+        <v>-21.4473942754638</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.652460809310389</v>
+        <v>-1.522388780577841</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.703068926501418</v>
+        <v>-4.559344809258828</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.333129538558109</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.55911089561225</v>
+        <v>-22.04077671715935</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.493428606691943</v>
+        <v>-1.379748141117235</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.869576834042491</v>
+        <v>-4.75998435030828</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.147492918268943</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.74664504151713</v>
+        <v>-22.25941817461618</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.306365783689361</v>
+        <v>-1.187409120069438</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.842109182680549</v>
+        <v>-4.737923820019972</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.95832651515571</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.83668080815968</v>
+        <v>-22.33155676327409</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.332367097133029</v>
+        <v>-1.214785125311487</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.041740616411189</v>
+        <v>-4.931048379238273</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.776377494623639</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.93239863423554</v>
+        <v>-22.42279702177808</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.113712547373362</v>
+        <v>-0.9746068296800223</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.235663806102835</v>
+        <v>-5.096089948861072</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.617294211898299</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.8282755497353</v>
+        <v>-22.30047563632783</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.094309754561924</v>
+        <v>-0.9725120612253462</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.267386455888337</v>
+        <v>-5.12679139902492</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.493040929348537</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.91715919372777</v>
+        <v>-22.41915736158808</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9460787017879012</v>
+        <v>-0.8341002355826181</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.592559981568288</v>
+        <v>-5.426408749557821</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.412127888261501</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.96027214698558</v>
+        <v>-22.47705152475419</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.027106964075344</v>
+        <v>-0.8887867845525079</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.764029871886374</v>
+        <v>-5.587653551356519</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.394576597178635</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.80015328323127</v>
+        <v>-22.3069301416288</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.108763656899189</v>
+        <v>-0.9682963397103104</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.810075500980725</v>
+        <v>-5.634484718621374</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.451333289722189</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.64778506275926</v>
+        <v>-22.13048517623086</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.192750779628862</v>
+        <v>-1.063948704271961</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.095422241416144</v>
+        <v>-5.878459782076939</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.581404125275734</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.64434178711189</v>
+        <v>-22.15635556664611</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.256248448411234</v>
+        <v>-1.109483733555484</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.013084748844529</v>
+        <v>-5.795925904962697</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.779845386738649</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.24955648722248</v>
+        <v>-21.73969302870818</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.433151644408636</v>
+        <v>-1.300094570628174</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.92344175128723</v>
+        <v>-5.68520429983022</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>7.029465265320302</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.97994669480281</v>
+        <v>-21.45595664152229</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.447906669711261</v>
+        <v>-1.324197500159792</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.911108802010324</v>
+        <v>-5.690873266960687</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>7.299247828414914</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.74432452056027</v>
+        <v>-21.21971912904619</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.618172068167909</v>
+        <v>-1.478320089212591</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.763414533652813</v>
+        <v>-5.479524222186703</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>7.552404330666813</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.43978446415888</v>
+        <v>-20.90301632330483</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.627454510882693</v>
+        <v>-1.500642465557734</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.640045763975228</v>
+        <v>-5.408092617882246</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>7.757885414610134</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.10840518693195</v>
+        <v>-20.5576413743401</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.710878664590171</v>
+        <v>-1.618957606338413</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.219665012030245</v>
+        <v>-4.941705513751439</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>7.887772371537212</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.98574340160782</v>
+        <v>-20.43224329772205</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.655341115935569</v>
+        <v>-1.559138874654566</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.887447827421447</v>
+        <v>-4.592638535385338</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>7.921345998290479</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.59110211704967</v>
+        <v>-20.04434454912739</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.738621254311789</v>
+        <v>-1.597656429614924</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.003916953501442</v>
+        <v>-4.681954225371593</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>7.857304912068906</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.19097515760084</v>
+        <v>-19.62025867547819</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.588635832956975</v>
+        <v>-1.468409215961404</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.608136638596063</v>
+        <v>-4.287260571602078</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>7.70115933441889</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.62316198335518</v>
+        <v>-19.04676344179923</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.71064300313902</v>
+        <v>-1.605603457439852</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.539807910065095</v>
+        <v>-4.242052849889597</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>7.464272446386605</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.25440418151512</v>
+        <v>-18.62872621206291</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.005887524522785</v>
+        <v>-1.910929052011745</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.458596355537868</v>
+        <v>-4.160029572586184</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>7.166694331448256</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.07217241826114</v>
+        <v>-18.45702066029368</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.138001952498643</v>
+        <v>-2.060181304407423</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.244969250069423</v>
+        <v>-3.918856261938747</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.829823770077426</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.85305963790201</v>
+        <v>-18.18510662257387</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.086601571542026</v>
+        <v>-2.053687522197927</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.197169252394281</v>
+        <v>-3.843235120724938</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.47051889494074</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.38603101093196</v>
+        <v>-17.68195633206349</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.210284556487812</v>
+        <v>-2.172277601338281</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.017058442200656</v>
+        <v>-3.678363751039081</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.101790180179111</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.40234402027275</v>
+        <v>-17.64434214599921</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.082032357850264</v>
+        <v>-2.017290920297928</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.913419772905552</v>
+        <v>-3.596733242820919</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.736688475000639</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.2762258669984</v>
+        <v>-17.5115207336699</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.23362813245461</v>
+        <v>-2.167930956794828</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.680874289830814</v>
+        <v>-3.361948975960246</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.379601598683589</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.84276590451454</v>
+        <v>-17.08879645951625</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.251027802931264</v>
+        <v>-2.183851197050367</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.665412280174735</v>
+        <v>-3.364292498168915</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.02724690913751</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.51311481126271</v>
+        <v>-16.7446390947158</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.428048829654242</v>
+        <v>-2.360767485350611</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.470991582975103</v>
+        <v>-3.179219705198275</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.68254638439134</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.04332370839306</v>
+        <v>-16.26260668868913</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.558212504506682</v>
+        <v>-2.512651290617476</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.349625935632303</v>
+        <v>-3.019336502895116</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.346811619220097</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.85408756311875</v>
+        <v>-16.04251198561687</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.454416727577478</v>
+        <v>-2.410544420754854</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.269160642367054</v>
+        <v>-2.906808159970481</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.019895139922185</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.38039495400226</v>
+        <v>-15.55970713372254</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.360479454688094</v>
+        <v>-2.322839084018131</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.269501042240939</v>
+        <v>-2.896674717570985</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.703607496202352</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.02559354699148</v>
+        <v>-15.18445554967299</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.561956903119416</v>
+        <v>-2.518045319388267</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.480234748781362</v>
+        <v>-3.105051809599897</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.401983394412785</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.65730706805373</v>
+        <v>-14.82607994398642</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.569484977253409</v>
+        <v>-2.530417545573698</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.513004782794202</v>
+        <v>-3.134116721908529</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.118686894939332</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.74777488069005</v>
+        <v>-14.91446608047091</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.433311935396615</v>
+        <v>-2.40854129842007</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.408227083151869</v>
+        <v>-3.042719355770439</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.856055467755216</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.60588050249143</v>
+        <v>-14.76483415129282</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.585640878960099</v>
+        <v>-2.576594097696466</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.568764900597114</v>
+        <v>-3.184129318763922</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.619582415492258</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.50088023370079</v>
+        <v>-14.63982884376002</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.454835681268413</v>
+        <v>-2.429567536783882</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.916614294798933</v>
+        <v>-3.534400788991461</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.41103139969757</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.15396039300073</v>
+        <v>-14.28822195864263</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.460622479124456</v>
+        <v>-2.445880546124673</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.22112816659464</v>
+        <v>-3.907806358340331</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.228824446523924</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.86060116322617</v>
+        <v>-14.0256820097575</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.501850140773052</v>
+        <v>-2.487723546006829</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.364475790408699</v>
+        <v>-4.019928839876873</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>2.07163928575348</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.87517289628901</v>
+        <v>-14.01946316590768</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.344467568312663</v>
+        <v>-2.307337797453528</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.532135820599843</v>
+        <v>-4.194553975179815</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.933225083583453</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.72220242988628</v>
+        <v>-13.87784372606872</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.324527991084714</v>
+        <v>-2.290605834421802</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.706250356091958</v>
+        <v>-4.364125481585851</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.804443374914396</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.64849276488737</v>
+        <v>-13.8166503025865</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.385250091664639</v>
+        <v>-2.330118404398131</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.674972844603074</v>
+        <v>-4.311363501133695</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.675087792136108</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.43419795197399</v>
+        <v>-13.60841722588884</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.266280335741874</v>
+        <v>-2.199417945129179</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.761224935724365</v>
+        <v>-4.39142293301085</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.53393389238967</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.36563356199188</v>
+        <v>-13.58283486613611</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.246785896810545</v>
+        <v>-2.207129311502956</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.021028593315577</v>
+        <v>-4.644484054638573</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.370081385108469</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.28824495989443</v>
+        <v>-13.48554596371924</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.298133908555794</v>
+        <v>-2.229176749488423</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.958578308760544</v>
+        <v>-4.573523773236418</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.175956159763382</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.40890362288378</v>
+        <v>-13.64769413441402</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.426870522398486</v>
+        <v>-2.374082357340647</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.916250893673244</v>
+        <v>-4.531405834994585</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.9491308831582729</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.47875105854439</v>
+        <v>-13.72088010729927</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.448184791424816</v>
+        <v>-2.353043026673993</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.988834620627773</v>
+        <v>-4.553453272980052</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.6902581430007516</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.30675747611263</v>
+        <v>-13.58636978790338</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.252297756306911</v>
+        <v>-2.166595541904972</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.82550814267724</v>
+        <v>-4.383672289728548</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.4039721150166881</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.44600720913723</v>
+        <v>-13.68927528823934</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.531478022103878</v>
+        <v>-2.457990926253269</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.810569825134831</v>
+        <v>-4.404043912950274</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09970035728589396</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.33544271163885</v>
+        <v>-13.57957488272852</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.568162654666394</v>
+        <v>-2.47058572158701</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.610872929889983</v>
+        <v>-4.167924231199744</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2122222007711183</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.48021739646266</v>
+        <v>-13.72749172023434</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.633375415121032</v>
+        <v>-2.53900609623787</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.683338826118937</v>
+        <v>-4.306755010533408</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5225216122209757</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.64372716665298</v>
+        <v>-13.91111126758955</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.610450792845169</v>
+        <v>-2.497176188658556</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.594573012852035</v>
+        <v>-4.218329597140389</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.822832764505624</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.88617043067606</v>
+        <v>-14.16086003659832</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.656352406608261</v>
+        <v>-2.539425049928806</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.644114286805126</v>
+        <v>-4.259884566360028</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.106070197712459</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.05762722869131</v>
+        <v>-14.29255551088324</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.731345117285668</v>
+        <v>-2.599649643000745</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.520326563436606</v>
+        <v>-4.153339405834061</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.365962082196842</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.21521927799716</v>
+        <v>-14.44535577734902</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.88731372103915</v>
+        <v>-2.773319040196242</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.200376866590504</v>
+        <v>-3.878728353728857</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.597291675496369</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.68235264338995</v>
+        <v>-14.91309138867253</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.995050281123715</v>
+        <v>-2.837104739641131</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.931709719975444</v>
+        <v>-3.600739487490487</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.794687621931621</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.47523559578772</v>
+        <v>-15.72092575091555</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.228944271391151</v>
+        <v>-3.090074215148962</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.793088417487248</v>
+        <v>-3.489389451821607</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.953285569285113</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.86710131214343</v>
+        <v>-16.0618493169141</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.116468297677882</v>
+        <v>-2.975320180741233</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.824627775032966</v>
+        <v>-3.54918199889977</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.068647620755256</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.25976565897247</v>
+        <v>-16.40184332941088</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.326442650653485</v>
+        <v>-3.187926086588023</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.664639834307073</v>
+        <v>-3.400623638554705</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.138279948405051</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.88437324294554</v>
+        <v>-17.00364412183367</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.474372580462147</v>
+        <v>-3.331116602767981</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.40558243797784</v>
+        <v>-3.157028251881549</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.16302661850185</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.575371894629</v>
+        <v>-17.68805734518774</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.727171856033036</v>
+        <v>-3.577919603637359</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.422458416340825</v>
+        <v>-3.168418555353851</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.146963286033914</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.41697130590084</v>
+        <v>-18.50915421020943</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.967035936396299</v>
+        <v>-3.80973191775296</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.55000363062492</v>
+        <v>-3.340687076145282</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.097818359440265</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.19643464788584</v>
+        <v>-19.29587068796875</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.18267925650237</v>
+        <v>-4.008171951925003</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.326662036447915</v>
+        <v>-3.1296522466395</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.030231378844658</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.08930351708587</v>
+        <v>-20.17192904032001</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.337849229782507</v>
+        <v>-4.166536447098522</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.346824182824173</v>
+        <v>-3.149133593267988</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.962412115702386</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.24797231857863</v>
+        <v>-21.27718124621852</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.541185785217355</v>
+        <v>-4.351439040132218</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.32488148326144</v>
+        <v>-3.131982676545327</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.914228833305254</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.34330055892312</v>
+        <v>-22.37901636107534</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.604748915513935</v>
+        <v>-4.400325698943224</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.565465640280999</v>
+        <v>-3.356083624287153</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.907974747609494</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.71534771213032</v>
+        <v>-23.71820183414982</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.647403638172278</v>
+        <v>-4.465198059523976</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.601404011581537</v>
+        <v>-3.411725911364488</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.961420329175042</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.07647588476753</v>
+        <v>-25.09174150988099</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.913517785733202</v>
+        <v>-4.731430037810476</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.737642514952538</v>
+        <v>-3.568087284203223</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.086294733946086</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.62800541763196</v>
+        <v>-26.65320810060229</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.006878997297551</v>
+        <v>-4.818297467165328</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.972649350961521</v>
+        <v>-3.829213264381449</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.289565694294273</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.15189709919751</v>
+        <v>-28.17000375402762</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.229984930023405</v>
+        <v>-5.024029914020212</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.195493437630541</v>
+        <v>-4.015150149339643</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.572564391256783</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.88898384023773</v>
+        <v>-29.93272522403193</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.385220364817751</v>
+        <v>-5.200435602509629</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.475812733774737</v>
+        <v>-4.338412198804701</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.926637602629943</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.6215406444947</v>
+        <v>-31.67520599384294</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.538321754248895</v>
+        <v>-5.354047591751601</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.907217204712453</v>
+        <v>-4.729479284687058</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.333581368593991</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.292197040916</v>
+        <v>-33.3713923808056</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.512909594433105</v>
+        <v>-5.321290650041602</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.272309161756827</v>
+        <v>-5.066920298129706</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.774839374736675</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.29501825273473</v>
+        <v>-35.35842427539721</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.727963760911297</v>
+        <v>-5.524875959230442</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.498648893284586</v>
+        <v>-5.321054988590451</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.223918443620842</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.14803733543843</v>
+        <v>-37.22763853671612</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.052273194603694</v>
+        <v>-5.825488324779315</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.049978858252513</v>
+        <v>-5.830973999669998</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.651057541630511</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.24288434393165</v>
+        <v>-39.34258223007139</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.041890998450205</v>
+        <v>-5.827007031908955</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.387354410180952</v>
+        <v>-6.182161931096458</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.032889885163407</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.53202112659609</v>
+        <v>-41.63548959595425</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.24861846032106</v>
+        <v>-6.016505023240098</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.876731598101831</v>
+        <v>-6.663971767974819</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.350035888893301</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.48132100439784</v>
+        <v>-43.60123340612521</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.3675489393353</v>
+        <v>-6.16897798213484</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.106527697579806</v>
+        <v>-6.867962938551753</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.589404489992658</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.60787757037372</v>
+        <v>-45.77688610775756</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.504900288447847</v>
+        <v>-6.293210843799979</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.216254287696313</v>
+        <v>-7.018589882745811</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.745713914472089</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.7978139744064</v>
+        <v>-47.98685373513808</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.638651254278921</v>
+        <v>-6.410648800290262</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.679106470059854</v>
+        <v>-7.500844857920791</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.825504609552831</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.97675284405203</v>
+        <v>-50.21462689438335</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.04057185921707</v>
+        <v>-6.786515722573375</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.120644383397067</v>
+        <v>-7.947017446463974</v>
       </c>
     </row>
   </sheetData>
